--- a/ValueSet-onconova-vs-icdo3-differentiation.xlsx
+++ b/ValueSet-onconova-vs-icdo3-differentiation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-icdo3-differentiation.xlsx
+++ b/ValueSet-onconova-vs-icdo3-differentiation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-icdo3-differentiation.xlsx
+++ b/ValueSet-onconova-vs-icdo3-differentiation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-icdo3-differentiation.xlsx
+++ b/ValueSet-onconova-vs-icdo3-differentiation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
